--- a/nanodegree.xlsx
+++ b/nanodegree.xlsx
@@ -570,6 +570,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,30 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -914,7 +914,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -936,27 +936,27 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="11" t="s">
         <v>95</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="11" t="s">
         <v>96</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="11" t="s">
         <v>97</v>
       </c>
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1005,7 +1005,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="11" t="s">
         <v>100</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="11" t="s">
         <v>101</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="11" t="s">
         <v>102</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="11" t="s">
         <v>103</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
         <v>104</v>
       </c>
@@ -1050,27 +1050,27 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11" t="s">
         <v>110</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="11" t="s">
         <v>111</v>
       </c>
@@ -1116,73 +1116,73 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickTop="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,8 +1211,8 @@
       <c r="B36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>3</v>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8">
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="9" t="s">
         <v>57</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="9" t="s">
         <v>58</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="9" t="s">
         <v>63</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="18"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="9" t="s">
         <v>66</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="18"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="9" t="s">
         <v>67</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="18"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="9" t="s">
         <v>68</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="18"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="9" t="s">
         <v>69</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
-      <c r="A51" s="18"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="9" t="s">
         <v>70</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="18"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="9" t="s">
         <v>71</v>
       </c>
@@ -1370,7 +1370,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="19"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="9" t="s">
         <v>72</v>
       </c>
@@ -1379,18 +1379,18 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>3</v>
+      <c r="C54" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="19"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="18" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -1421,7 +1421,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="21"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="9" t="s">
         <v>80</v>
       </c>
@@ -1431,11 +1431,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A57:A58"/>
@@ -1444,11 +1444,11 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nanodegree.xlsx
+++ b/nanodegree.xlsx
@@ -570,41 +570,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="11" t="s">
         <v>95</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="11" t="s">
         <v>96</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="11" t="s">
         <v>97</v>
       </c>
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1005,7 +1005,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="11" t="s">
         <v>100</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="11" t="s">
         <v>101</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="11" t="s">
         <v>102</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="11" t="s">
         <v>103</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="11" t="s">
         <v>104</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
         <v>110</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="11" t="s">
         <v>111</v>
       </c>
@@ -1116,73 +1116,73 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickTop="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="3" t="s">
-        <v>3</v>
+      <c r="B26" s="21"/>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="9" t="s">
         <v>57</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="9" t="s">
         <v>58</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="9" t="s">
         <v>63</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="9" t="s">
         <v>66</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="9" t="s">
         <v>67</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="9" t="s">
         <v>68</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="9" t="s">
         <v>69</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
-      <c r="A51" s="16"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="9" t="s">
         <v>70</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="9" t="s">
         <v>71</v>
       </c>
@@ -1370,7 +1370,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="17"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="9" t="s">
         <v>72</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -1421,7 +1421,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="9" t="s">
         <v>80</v>
       </c>
@@ -1431,11 +1431,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A57:A58"/>
@@ -1444,11 +1444,11 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nanodegree.xlsx
+++ b/nanodegree.xlsx
@@ -570,6 +570,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,30 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
@@ -956,101 +956,101 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
@@ -1070,32 +1070,32 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1116,73 +1116,73 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickTop="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="3" t="s">
-        <v>3</v>
+      <c r="B27" s="14"/>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="3" t="s">
-        <v>3</v>
+      <c r="B28" s="14"/>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="3" t="s">
-        <v>3</v>
+      <c r="B29" s="14"/>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="3" t="s">
-        <v>3</v>
+      <c r="B30" s="14"/>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,55 +1222,55 @@
       <c r="B37" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>3</v>
+      <c r="C37" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>3</v>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
+      <c r="C39" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
+      <c r="C41" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>3</v>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8">
@@ -1280,106 +1280,106 @@
       <c r="B43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>3</v>
+      <c r="C43" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>3</v>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>3</v>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>3</v>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>3</v>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
+      <c r="C48" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>3</v>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>3</v>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>3</v>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>3</v>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="18"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>3</v>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -1390,12 +1390,12 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="18"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>3</v>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="43.2">
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -1421,21 +1421,21 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="20"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>3</v>
+      <c r="C58" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A57:A58"/>
@@ -1444,11 +1444,11 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
